--- a/vroom/20210825 vroom-test.xlsx
+++ b/vroom/20210825 vroom-test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB4JF187521</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB9KF492840</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,17 +566,17 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D4" t="n">
         <v>47499</v>
       </c>
       <c r="E4" t="n">
-        <v>47664</v>
+        <v>18964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -594,26 +594,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E26HF187750</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB1KF388956</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D5" t="n">
-        <v>65999</v>
+        <v>43999</v>
       </c>
       <c r="E5" t="n">
-        <v>16475</v>
+        <v>47719</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>100D</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>Available Soon</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB1KF388956</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA2JF168649</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -640,17 +640,17 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D6" t="n">
-        <v>44999</v>
+        <v>45520</v>
       </c>
       <c r="E6" t="n">
-        <v>47719</v>
+        <v>5854</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>STANDARD 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Available Soon</t>
+          <t>Available Now</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -668,7 +668,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB9KF492840</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB9KF433934</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -680,10 +680,10 @@
         <v>2019</v>
       </c>
       <c r="D7" t="n">
-        <v>48999</v>
+        <v>47999</v>
       </c>
       <c r="E7" t="n">
-        <v>18964</v>
+        <v>16808</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -705,26 +705,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE2LF023618</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE25JF124503</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D8" t="n">
-        <v>59499</v>
+        <v>72999</v>
       </c>
       <c r="E8" t="n">
-        <v>20785</v>
+        <v>46804</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>100D</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Available Soon</t>
+          <t>Available Now</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -742,7 +742,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA2JF168649</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB5LF769663</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -751,17 +751,17 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D9" t="n">
-        <v>45520</v>
+        <v>49499</v>
       </c>
       <c r="E9" t="n">
-        <v>5854</v>
+        <v>21374</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>STANDARD 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -779,26 +779,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB2KF211588</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE2LF023618</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D10" t="n">
-        <v>44999</v>
+        <v>57999</v>
       </c>
       <c r="E10" t="n">
-        <v>21218</v>
+        <v>20785</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>Available Soon</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -816,26 +816,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E27JF258394</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB5KF436927</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D11" t="n">
-        <v>65999</v>
+        <v>48999</v>
       </c>
       <c r="E11" t="n">
-        <v>30348</v>
+        <v>30076</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100D</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -853,7 +853,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB5KF436927</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB6LF512270</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -862,17 +862,17 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D12" t="n">
-        <v>50499</v>
+        <v>50999</v>
       </c>
       <c r="E12" t="n">
-        <v>30076</v>
+        <v>8846</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB0JF114453</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EC6MF849810</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -899,17 +899,17 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D13" t="n">
-        <v>45999</v>
+        <v>60999</v>
       </c>
       <c r="E13" t="n">
-        <v>20149</v>
+        <v>9841</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -927,7 +927,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB5LF769663</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EC8LF601766</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -939,14 +939,14 @@
         <v>2020</v>
       </c>
       <c r="D14" t="n">
-        <v>50999</v>
+        <v>48499</v>
       </c>
       <c r="E14" t="n">
-        <v>21374</v>
+        <v>43856</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -964,26 +964,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE25JF124503</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB1JF099770</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>2018</v>
       </c>
       <c r="D15" t="n">
-        <v>72999</v>
+        <v>46999</v>
       </c>
       <c r="E15" t="n">
-        <v>46804</v>
+        <v>23347</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100D</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1001,26 +1001,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB3JF127598</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED2MF109598</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D16" t="n">
-        <v>44499</v>
+        <v>49999</v>
       </c>
       <c r="E16" t="n">
-        <v>20007</v>
+        <v>4180</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>Available Soon</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB4JF085023</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA6LF633887</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1047,17 +1047,17 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D17" t="n">
-        <v>46999</v>
+        <v>45999</v>
       </c>
       <c r="E17" t="n">
-        <v>18057</v>
+        <v>19080</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1075,26 +1075,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EC6MF849810</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED2MF125932</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>2021</v>
       </c>
       <c r="D18" t="n">
-        <v>62999</v>
+        <v>55999</v>
       </c>
       <c r="E18" t="n">
-        <v>9841</v>
+        <v>3300</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>Available Soon</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1112,26 +1112,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB6LF512270</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEDXMF106951</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D19" t="n">
-        <v>50999</v>
+        <v>58770</v>
       </c>
       <c r="E19" t="n">
-        <v>8846</v>
+        <v>4704</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EC8LF601766</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EC8LF624772</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1161,10 +1161,10 @@
         <v>2020</v>
       </c>
       <c r="D20" t="n">
-        <v>49999</v>
+        <v>56999</v>
       </c>
       <c r="E20" t="n">
-        <v>43856</v>
+        <v>11573</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB1JF099770</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB5KF365311</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D21" t="n">
-        <v>46999</v>
+        <v>49980</v>
       </c>
       <c r="E21" t="n">
-        <v>23347</v>
+        <v>12173</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1223,26 +1223,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EC1MF849777</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE26JF118452</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D22" t="n">
-        <v>59999</v>
+        <v>67999</v>
       </c>
       <c r="E22" t="n">
-        <v>5010</v>
+        <v>26758</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1260,26 +1260,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2019-5YJSA1E29KF331198</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2020-5YJXCDE2XLF298828</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D23" t="n">
-        <v>69999</v>
+        <v>89999</v>
       </c>
       <c r="E23" t="n">
-        <v>20320</v>
+        <v>16596</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Long Range Plus</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1297,26 +1297,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED0MF111186</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB5LF662905</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>52999</v>
+        <v>49999</v>
       </c>
       <c r="E24" t="n">
-        <v>5333</v>
+        <v>5152</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1334,7 +1334,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA6LF633887</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB0MF980612</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1343,17 +1343,17 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D25" t="n">
-        <v>45999</v>
+        <v>59999</v>
       </c>
       <c r="E25" t="n">
-        <v>19080</v>
+        <v>4567</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB0MF874662</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB5LF662905</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1380,13 +1380,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>60499</v>
+        <v>49999</v>
       </c>
       <c r="E26" t="n">
-        <v>2516</v>
+        <v>5152</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1408,26 +1408,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE26JF118452</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB4KF452679</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D27" t="n">
-        <v>67999</v>
+        <v>47999</v>
       </c>
       <c r="E27" t="n">
-        <v>26758</v>
+        <v>26749</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>75D</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1445,26 +1445,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA6LF633887</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E20JF256969</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D28" t="n">
-        <v>45999</v>
+        <v>62999</v>
       </c>
       <c r="E28" t="n">
-        <v>19080</v>
+        <v>37660</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>100D</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1482,7 +1482,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB5LF769663</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF043116</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1491,17 +1491,17 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D29" t="n">
-        <v>50999</v>
+        <v>42499</v>
       </c>
       <c r="E29" t="n">
-        <v>21374</v>
+        <v>35618</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>Sale Pending</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1519,26 +1519,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEDXMF106951</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E28HF192755</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D30" t="n">
-        <v>58770</v>
+        <v>48999</v>
       </c>
       <c r="E30" t="n">
-        <v>4704</v>
+        <v>35841</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>Sale Pending</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB9KF492840</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF088757</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D31" t="n">
-        <v>48999</v>
+        <v>46710</v>
       </c>
       <c r="E31" t="n">
-        <v>18964</v>
+        <v>51788</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>Sale Pending</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -1593,26 +1593,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED0MF111186</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB8JF072484</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D32" t="n">
-        <v>52999</v>
+        <v>43999</v>
       </c>
       <c r="E32" t="n">
-        <v>5333</v>
+        <v>23441</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>Sale Pending</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -1630,7 +1630,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EC8LF601766</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA3KF486488</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1639,17 +1639,17 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D33" t="n">
-        <v>49999</v>
+        <v>41899</v>
       </c>
       <c r="E33" t="n">
-        <v>43856</v>
+        <v>15475</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>Sale Pending</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -1667,26 +1667,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB4JF085023</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE8MF160578</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D34" t="n">
-        <v>46999</v>
+        <v>58999</v>
       </c>
       <c r="E34" t="n">
-        <v>18057</v>
+        <v>2593</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Available Now</t>
+          <t>Sale Pending</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -1704,7 +1704,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB8JF072484</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF077816</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1716,14 +1716,14 @@
         <v>2018</v>
       </c>
       <c r="D35" t="n">
-        <v>43999</v>
+        <v>40999</v>
       </c>
       <c r="E35" t="n">
-        <v>23441</v>
+        <v>46854</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1741,26 +1741,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2021-5YJSA1E21MF426468</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2016-5YJXCDE28GF029491</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D36" t="n">
-        <v>89499</v>
+        <v>56999</v>
       </c>
       <c r="E36" t="n">
-        <v>11069</v>
+        <v>53384</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Long Range Plus</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1778,7 +1778,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E28HF192755</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2020-5YJSA1E29LF401591</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1787,17 +1787,17 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D37" t="n">
-        <v>48999</v>
+        <v>75620</v>
       </c>
       <c r="E37" t="n">
-        <v>35841</v>
+        <v>39613</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>75D</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1815,7 +1815,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB8KF418552</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB7JF071293</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D38" t="n">
-        <v>50999</v>
+        <v>42999</v>
       </c>
       <c r="E38" t="n">
-        <v>18848</v>
+        <v>60819</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1852,26 +1852,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2020-5YJXCDE2XLF298828</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB7KF389576</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D39" t="n">
-        <v>89999</v>
+        <v>49980</v>
       </c>
       <c r="E39" t="n">
-        <v>16596</v>
+        <v>20466</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Long Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1889,26 +1889,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB3JF108582</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E26HF187750</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="n">
-        <v>47980</v>
+        <v>65999</v>
       </c>
       <c r="E40" t="n">
-        <v>8671</v>
+        <v>16475</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>100D</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1926,26 +1926,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA5KF396811</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2019-5YJXCBE22KF193106</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>2019</v>
       </c>
       <c r="D41" t="n">
-        <v>43160</v>
+        <v>84414</v>
       </c>
       <c r="E41" t="n">
-        <v>10594</v>
+        <v>34333</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1963,26 +1963,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE0LF016943</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF027093</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D42" t="n">
-        <v>61499</v>
+        <v>43770</v>
       </c>
       <c r="E42" t="n">
-        <v>8962</v>
+        <v>23519</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB1LF619369</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA2KF297847</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2009,17 +2009,17 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D43" t="n">
-        <v>53499</v>
+        <v>42554</v>
       </c>
       <c r="E43" t="n">
-        <v>15663</v>
+        <v>15421</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2037,26 +2037,26 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF027093</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE27JF138533</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>2018</v>
       </c>
       <c r="D44" t="n">
-        <v>43770</v>
+        <v>65999</v>
       </c>
       <c r="E44" t="n">
-        <v>23519</v>
+        <v>29666</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2074,26 +2074,26 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA3KF486488</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE0MF072592</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D45" t="n">
-        <v>41899</v>
+        <v>61499</v>
       </c>
       <c r="E45" t="n">
-        <v>15475</v>
+        <v>9896</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2111,26 +2111,26 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E11HF210813</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA4JF172816</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D46" t="n">
-        <v>47499</v>
+        <v>41980</v>
       </c>
       <c r="E46" t="n">
-        <v>31002</v>
+        <v>17285</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>STANDARD 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2148,26 +2148,26 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2019-5YJXCBE22KF193106</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E27JF258394</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D47" t="n">
-        <v>84414</v>
+        <v>65999</v>
       </c>
       <c r="E47" t="n">
-        <v>34333</v>
+        <v>30348</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>100D</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2185,7 +2185,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF088757</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB0JF114453</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2197,14 +2197,14 @@
         <v>2018</v>
       </c>
       <c r="D48" t="n">
-        <v>46710</v>
+        <v>45999</v>
       </c>
       <c r="E48" t="n">
-        <v>51788</v>
+        <v>20149</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2222,22 +2222,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE6LF008782</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB1LF619369</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>53999</v>
+        <v>53499</v>
       </c>
       <c r="E49" t="n">
-        <v>26934</v>
+        <v>15663</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB9KF198936</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB3JF127598</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2268,17 +2268,17 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D50" t="n">
-        <v>44899</v>
+        <v>44499</v>
       </c>
       <c r="E50" t="n">
-        <v>26191</v>
+        <v>20007</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2296,26 +2296,26 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2021-5YJSA1E21MF426468</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB4JF085023</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D51" t="n">
-        <v>89499</v>
+        <v>46999</v>
       </c>
       <c r="E51" t="n">
-        <v>11069</v>
+        <v>18057</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Long Range Plus</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2333,26 +2333,26 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED8MF107533</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB8LF628652</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>56899</v>
+        <v>50899</v>
       </c>
       <c r="E52" t="n">
-        <v>7252</v>
+        <v>11167</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2370,22 +2370,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA8KF331614</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE8MF060786</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D53" t="n">
-        <v>45999</v>
+        <v>61760</v>
       </c>
       <c r="E53" t="n">
-        <v>18927</v>
+        <v>3395</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2407,22 +2407,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E27GF153833</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCAE23JF088308</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D54" t="n">
-        <v>44999</v>
+        <v>62999</v>
       </c>
       <c r="E54" t="n">
-        <v>48790</v>
+        <v>41333</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2444,26 +2444,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE0MF072592</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EC6LF624124</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>61499</v>
+        <v>56499</v>
       </c>
       <c r="E55" t="n">
-        <v>9896</v>
+        <v>18213</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EC6LF624124</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB3KF451944</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2490,17 +2490,17 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="n">
-        <v>56499</v>
+        <v>50000</v>
       </c>
       <c r="E56" t="n">
-        <v>18213</v>
+        <v>30683</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF088757</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA6JF155578</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2530,14 +2530,14 @@
         <v>2018</v>
       </c>
       <c r="D57" t="n">
-        <v>46710</v>
+        <v>38999</v>
       </c>
       <c r="E57" t="n">
-        <v>51788</v>
+        <v>17158</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>MID RANGE</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2555,22 +2555,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB3JF108582</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2020-5YJSA1E23LF354882</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D58" t="n">
-        <v>47980</v>
+        <v>72999</v>
       </c>
       <c r="E58" t="n">
-        <v>8671</v>
+        <v>21312</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE1MF074898</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE2MF122523</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2604,10 +2604,10 @@
         <v>2021</v>
       </c>
       <c r="D59" t="n">
-        <v>51980</v>
+        <v>61999</v>
       </c>
       <c r="E59" t="n">
-        <v>10207</v>
+        <v>10723</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA9KF317530</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EC1MF849777</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2638,17 +2638,17 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D60" t="n">
-        <v>42499</v>
+        <v>59999</v>
       </c>
       <c r="E60" t="n">
-        <v>13962</v>
+        <v>5010</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>STANDARD RANGE PLUS 4DR FASTBACK</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2666,26 +2666,26 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA3KF486488</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2020-5YJXCBE23LF260930</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D61" t="n">
-        <v>41899</v>
+        <v>94999</v>
       </c>
       <c r="E61" t="n">
-        <v>15475</v>
+        <v>27368</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>AWD LONG RANGE PLUS 4DR SUV</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2703,26 +2703,26 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA2KF297847</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2019-5YJSA1E29KF331198</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>2019</v>
       </c>
       <c r="D62" t="n">
-        <v>42554</v>
+        <v>69999</v>
       </c>
       <c r="E62" t="n">
-        <v>15421</v>
+        <v>20320</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF027093</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EC0LF719388</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2749,17 +2749,17 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>43770</v>
+        <v>56999</v>
       </c>
       <c r="E63" t="n">
-        <v>23519</v>
+        <v>20568</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2777,26 +2777,26 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA5KF396811</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE22JF088124</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D64" t="n">
-        <v>43160</v>
+        <v>71999</v>
       </c>
       <c r="E64" t="n">
-        <v>10594</v>
+        <v>9704</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>100D</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2814,26 +2814,26 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB3KF451944</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E11HF210813</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D65" t="n">
-        <v>50000</v>
+        <v>47499</v>
       </c>
       <c r="E65" t="n">
-        <v>30683</v>
+        <v>31002</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2851,26 +2851,26 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB1LF619369</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED0MF111186</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D66" t="n">
-        <v>53499</v>
+        <v>52999</v>
       </c>
       <c r="E66" t="n">
-        <v>15663</v>
+        <v>5333</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2888,26 +2888,26 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA9JF152593</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED8MF107533</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D67" t="n">
-        <v>39499</v>
+        <v>56899</v>
       </c>
       <c r="E67" t="n">
-        <v>41972</v>
+        <v>7252</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mid Range</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2925,7 +2925,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB9KF433934</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB8JF122333</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D68" t="n">
-        <v>51390</v>
+        <v>44899</v>
       </c>
       <c r="E68" t="n">
-        <v>16808</v>
+        <v>44572</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2962,26 +2962,26 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2020-5YJXCBE23LF260930</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA4JF108307</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D69" t="n">
-        <v>94999</v>
+        <v>42870</v>
       </c>
       <c r="E69" t="n">
-        <v>27368</v>
+        <v>29725</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE PLUS 4DR SUV</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2999,26 +2999,26 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE22JF088124</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA8KF331614</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D70" t="n">
-        <v>77999</v>
+        <v>45999</v>
       </c>
       <c r="E70" t="n">
-        <v>9704</v>
+        <v>18927</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>100D</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3036,26 +3036,26 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2016-5YJXCDE28GF029491</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB1LF589094</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D71" t="n">
-        <v>65499</v>
+        <v>50779</v>
       </c>
       <c r="E71" t="n">
-        <v>53384</v>
+        <v>20695</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>75D</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3073,26 +3073,26 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB1LF589094</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E27GF153833</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D72" t="n">
-        <v>50779</v>
+        <v>44999</v>
       </c>
       <c r="E72" t="n">
-        <v>20695</v>
+        <v>48790</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3110,7 +3110,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB8JF122333</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA9JF152593</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3122,14 +3122,14 @@
         <v>2018</v>
       </c>
       <c r="D73" t="n">
-        <v>44899</v>
+        <v>39499</v>
       </c>
       <c r="E73" t="n">
-        <v>44572</v>
+        <v>41972</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Mid Range</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3147,22 +3147,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE0LF016943</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB8JF093299</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D74" t="n">
-        <v>61499</v>
+        <v>46980</v>
       </c>
       <c r="E74" t="n">
-        <v>8962</v>
+        <v>10287</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3184,26 +3184,26 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA2KF297847</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE1MF074898</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D75" t="n">
-        <v>42554</v>
+        <v>51980</v>
       </c>
       <c r="E75" t="n">
-        <v>15421</v>
+        <v>10207</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3221,26 +3221,26 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE22JF088124</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB3JF115211</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>2018</v>
       </c>
       <c r="D76" t="n">
-        <v>77999</v>
+        <v>42499</v>
       </c>
       <c r="E76" t="n">
-        <v>9704</v>
+        <v>54757</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>100D</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EA1MF855027</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA1JF077713</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3267,17 +3267,17 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D77" t="n">
-        <v>46420</v>
+        <v>43910</v>
       </c>
       <c r="E77" t="n">
-        <v>4241</v>
+        <v>21741</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3295,26 +3295,26 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EC8LF624755</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE6LF008782</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>49999</v>
+        <v>53999</v>
       </c>
       <c r="E78" t="n">
-        <v>34294</v>
+        <v>27031</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3332,7 +3332,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB9KF198936</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB3JF108582</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3341,17 +3341,17 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D79" t="n">
-        <v>44899</v>
+        <v>47980</v>
       </c>
       <c r="E79" t="n">
-        <v>26191</v>
+        <v>8671</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3369,22 +3369,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE8MF060786</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB0KF390049</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D80" t="n">
-        <v>61760</v>
+        <v>50899</v>
       </c>
       <c r="E80" t="n">
-        <v>3394</v>
+        <v>13774</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3406,26 +3406,26 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB9KF433934</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEDXMF106366</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D81" t="n">
-        <v>51390</v>
+        <v>59670</v>
       </c>
       <c r="E81" t="n">
-        <v>16808</v>
+        <v>1511</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3443,7 +3443,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB1LF619369</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB9KF198936</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3452,17 +3452,17 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D82" t="n">
-        <v>53499</v>
+        <v>44899</v>
       </c>
       <c r="E82" t="n">
-        <v>15663</v>
+        <v>26191</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3480,7 +3480,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB7KF389576</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA5KF396811</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3492,14 +3492,14 @@
         <v>2019</v>
       </c>
       <c r="D83" t="n">
-        <v>49980</v>
+        <v>43160</v>
       </c>
       <c r="E83" t="n">
-        <v>20466</v>
+        <v>10594</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3517,7 +3517,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB1LF589094</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB0MF874662</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3526,13 +3526,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D84" t="n">
-        <v>50779</v>
+        <v>60499</v>
       </c>
       <c r="E84" t="n">
-        <v>20695</v>
+        <v>2516</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3554,26 +3554,26 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2020-5YJXCDE2XLF298828</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E28HF192366</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D85" t="n">
-        <v>89999</v>
+        <v>46999</v>
       </c>
       <c r="E85" t="n">
-        <v>16596</v>
+        <v>39497</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Long Range Plus</t>
+          <t>90D</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sale Pending</t>
+          <t>Available Soon</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -3591,26 +3591,26 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF027093</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2017-5YJXCDE25HF054222</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D86" t="n">
-        <v>43770</v>
+        <v>63999</v>
       </c>
       <c r="E86" t="n">
-        <v>23519</v>
+        <v>14004</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>90D</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sale Pending</t>
+          <t>Available Soon</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -3628,26 +3628,26 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E11HF210813</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE25JF090787</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D87" t="n">
-        <v>47499</v>
+        <v>62999</v>
       </c>
       <c r="E87" t="n">
-        <v>31002</v>
+        <v>28351</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sale Pending</t>
+          <t>Available Soon</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -3665,26 +3665,26 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA1JF077713</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCBE41JF081123</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>2018</v>
       </c>
       <c r="D88" t="n">
-        <v>43910</v>
+        <v>76999</v>
       </c>
       <c r="E88" t="n">
-        <v>21741</v>
+        <v>36499</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>P100D</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sale Pending</t>
+          <t>Available Soon</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -3702,7 +3702,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB7JF071293</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA8KF399511</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3711,17 +3711,17 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D89" t="n">
-        <v>42999</v>
+        <v>34999</v>
       </c>
       <c r="E89" t="n">
-        <v>60819</v>
+        <v>21113</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>STANDARD RANGE PLUS 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sale Pending</t>
+          <t>Available Soon</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -3739,22 +3739,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEF2LF002759</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1ECXLF647115</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>2020</v>
       </c>
       <c r="D90" t="n">
-        <v>61999</v>
+        <v>52999</v>
       </c>
       <c r="E90" t="n">
-        <v>13278</v>
+        <v>25802</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3776,26 +3776,26 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCBE41JF081123</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E28JF257223</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>2018</v>
       </c>
       <c r="D91" t="n">
-        <v>76999</v>
+        <v>49999</v>
       </c>
       <c r="E91" t="n">
-        <v>36499</v>
+        <v>40895</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>P100D</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3813,26 +3813,26 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EBXJF096673</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE3LF014572</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D92" t="n">
-        <v>44999</v>
+        <v>60999</v>
       </c>
       <c r="E92" t="n">
-        <v>37715</v>
+        <v>6958</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3850,26 +3850,26 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA6JF155578</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E12GF140933</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>38999</v>
+        <v>41999</v>
       </c>
       <c r="E93" t="n">
-        <v>17128</v>
+        <v>34732</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>STANDARD 4DR FASTBACK</t>
+          <t>75 4DR LIFTBACK (MIDYEAR RELEASE)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3887,7 +3887,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB2MF902770</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA1LF633005</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3896,17 +3896,17 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D94" t="n">
-        <v>55999</v>
+        <v>40999</v>
       </c>
       <c r="E94" t="n">
-        <v>4561</v>
+        <v>23414</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3924,26 +3924,26 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE25JF090272</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA4JF166353</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>2018</v>
       </c>
       <c r="D95" t="n">
-        <v>71999</v>
+        <v>39999</v>
       </c>
       <c r="E95" t="n">
-        <v>36423</v>
+        <v>42611</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>AWD 75D 4DR SUV</t>
+          <t>STANDARD 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3961,26 +3961,26 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2016-5YJXCAE26GF018908</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2017-5YJ3E1EA7HF000077</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D96" t="n">
-        <v>57999</v>
+        <v>41999</v>
       </c>
       <c r="E96" t="n">
-        <v>48243</v>
+        <v>43468</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>UTILITY 4D D 60 KWH AWD</t>
+          <t>LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3998,7 +3998,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA7LF783717</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA6JF165530</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4007,17 +4007,17 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D97" t="n">
-        <v>45999</v>
+        <v>39499</v>
       </c>
       <c r="E97" t="n">
-        <v>13169</v>
+        <v>58947</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>STANDARD 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4035,26 +4035,26 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA4KF401433</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E12GF140933</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D98" t="n">
-        <v>44999</v>
+        <v>41999</v>
       </c>
       <c r="E98" t="n">
-        <v>9698</v>
+        <v>34732</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mid Range</t>
+          <t>75 4DR LIFTBACK (MIDYEAR RELEASE)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4072,26 +4072,26 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE8LF025955</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA1LF633005</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>2020</v>
       </c>
       <c r="D99" t="n">
-        <v>56999</v>
+        <v>40999</v>
       </c>
       <c r="E99" t="n">
-        <v>2665</v>
+        <v>23414</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4109,7 +4109,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF145734</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA4JF020017</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4121,14 +4121,14 @@
         <v>2018</v>
       </c>
       <c r="D100" t="n">
-        <v>43999</v>
+        <v>42499</v>
       </c>
       <c r="E100" t="n">
-        <v>40485</v>
+        <v>24141</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4146,7 +4146,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE8MF160578</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED7MF133217</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4158,14 +4158,14 @@
         <v>2021</v>
       </c>
       <c r="D101" t="n">
-        <v>58999</v>
+        <v>54999</v>
       </c>
       <c r="E101" t="n">
-        <v>2576</v>
+        <v>4360</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4183,7 +4183,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2017-5YJ3E1EA7HF000077</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA1KF300527</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4192,17 +4192,17 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D102" t="n">
-        <v>41999</v>
+        <v>40999</v>
       </c>
       <c r="E102" t="n">
-        <v>43468</v>
+        <v>19618</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
+          <t>STANDARD RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4220,26 +4220,26 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2020-5YJXCDE28LF236683</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB8KF425713</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D103" t="n">
-        <v>87999</v>
+        <v>49999</v>
       </c>
       <c r="E103" t="n">
-        <v>4156</v>
+        <v>40551</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR SUV</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4257,26 +4257,26 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1S2XFF094358</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB1KF187171</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D104" t="n">
-        <v>36999</v>
+        <v>49999</v>
       </c>
       <c r="E104" t="n">
-        <v>60543</v>
+        <v>12381</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>70D</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4294,26 +4294,26 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE25JF090272</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E21HF224509</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D105" t="n">
-        <v>71999</v>
+        <v>59499</v>
       </c>
       <c r="E105" t="n">
-        <v>36423</v>
+        <v>37261</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>AWD 75D 4DR SUV</t>
+          <t>100D</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4331,7 +4331,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E17HF228409</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E25HF230541</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4343,14 +4343,14 @@
         <v>2017</v>
       </c>
       <c r="D106" t="n">
-        <v>43999</v>
+        <v>50999</v>
       </c>
       <c r="E106" t="n">
-        <v>28380</v>
+        <v>31884</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>AWD 75D 4DR LIFTBACK</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4368,26 +4368,26 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED7MF133217</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB5KF144808</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D107" t="n">
-        <v>54999</v>
+        <v>41999</v>
       </c>
       <c r="E107" t="n">
-        <v>4360</v>
+        <v>60306</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4405,26 +4405,26 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1S24FF094338</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA9JF078575</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D108" t="n">
-        <v>38499</v>
+        <v>40999</v>
       </c>
       <c r="E108" t="n">
-        <v>61463</v>
+        <v>54204</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>70D</t>
+          <t>LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4442,7 +4442,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2017-5YJXCAE41HF052757</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE25JF090272</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4451,17 +4451,17 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D109" t="n">
-        <v>78999</v>
+        <v>71999</v>
       </c>
       <c r="E109" t="n">
-        <v>38507</v>
+        <v>36423</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>P100D</t>
+          <t>AWD 75D 4DR SUV</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4479,26 +4479,26 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E21HF206818</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB7KF231223</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D110" t="n">
-        <v>45999</v>
+        <v>48999</v>
       </c>
       <c r="E110" t="n">
-        <v>59410</v>
+        <v>40305</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>AWD 75D 4DR LIFTBACK</t>
+          <t>AWD PERFORMANCE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4553,26 +4553,26 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1E22FF103257</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA9JF153095</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D112" t="n">
-        <v>36999</v>
+        <v>39499</v>
       </c>
       <c r="E112" t="n">
-        <v>50346</v>
+        <v>30640</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>AWD 70D 4DR LIFTBACK</t>
+          <t>STANDARD 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4590,26 +4590,26 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E12GF140933</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB1MF937817</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D113" t="n">
-        <v>41999</v>
+        <v>52999</v>
       </c>
       <c r="E113" t="n">
-        <v>34732</v>
+        <v>12543</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>75 4DR LIFTBACK (MIDYEAR RELEASE)</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4627,26 +4627,26 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE6LF016199</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E26JF274036</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D114" t="n">
-        <v>60499</v>
+        <v>52999</v>
       </c>
       <c r="E114" t="n">
-        <v>13036</v>
+        <v>41430</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>AWD 75D 4DR LIFTBACK</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4664,26 +4664,26 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA1KF300527</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2020-5YJXCDE28LF236683</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D115" t="n">
-        <v>40999</v>
+        <v>87999</v>
       </c>
       <c r="E115" t="n">
-        <v>19618</v>
+        <v>4156</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>STANDARD RANGE 4DR FASTBACK</t>
+          <t>AWD LONG RANGE 4DR SUV</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4701,26 +4701,26 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EA8MF870060</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2017-5YJXCAE41HF052757</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D116" t="n">
-        <v>47999</v>
+        <v>78999</v>
       </c>
       <c r="E116" t="n">
-        <v>6382</v>
+        <v>38507</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>P100D</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4738,26 +4738,26 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA6JF165530</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE8LF025955</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D117" t="n">
-        <v>39499</v>
+        <v>56999</v>
       </c>
       <c r="E117" t="n">
-        <v>58947</v>
+        <v>2665</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>STANDARD 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4775,26 +4775,26 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED2MF125932</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1S2XFF085224</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>55999</v>
+        <v>38999</v>
       </c>
       <c r="E118" t="n">
-        <v>3300</v>
+        <v>42895</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>70D</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4812,26 +4812,26 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB1KF477698</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1S24FF094338</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D119" t="n">
-        <v>48499</v>
+        <v>38499</v>
       </c>
       <c r="E119" t="n">
-        <v>44564</v>
+        <v>61463</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>70D</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4849,22 +4849,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1ECXLF647115</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEF2LF002759</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>2020</v>
       </c>
       <c r="D120" t="n">
-        <v>52999</v>
+        <v>61999</v>
       </c>
       <c r="E120" t="n">
-        <v>25802</v>
+        <v>13278</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4886,26 +4886,26 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA9JF153095</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E26GF168288</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>39499</v>
+        <v>50999</v>
       </c>
       <c r="E121" t="n">
-        <v>30640</v>
+        <v>54576</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>STANDARD 4DR FASTBACK</t>
+          <t>90D</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4923,26 +4923,26 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB3KF510720</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEF2LF002759</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D122" t="n">
-        <v>50499</v>
+        <v>61999</v>
       </c>
       <c r="E122" t="n">
-        <v>24833</v>
+        <v>13278</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4960,26 +4960,26 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E21HF206818</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EAXJF172433</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D123" t="n">
-        <v>45999</v>
+        <v>40999</v>
       </c>
       <c r="E123" t="n">
-        <v>59410</v>
+        <v>48000</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>AWD 75D 4DR LIFTBACK</t>
+          <t>STANDARD 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5034,26 +5034,26 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1S24FF094338</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEDXMF107503</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="D125" t="n">
-        <v>38499</v>
+        <v>56999</v>
       </c>
       <c r="E125" t="n">
-        <v>61463</v>
+        <v>3462</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>70D</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5071,26 +5071,26 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA4JF018977</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2016-5YJXCBE20GF004010</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D126" t="n">
-        <v>39999</v>
+        <v>66499</v>
       </c>
       <c r="E126" t="n">
-        <v>59442</v>
+        <v>42363</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
+          <t>AWD 90D 4DR SUV</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5108,22 +5108,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEEXLF016111</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2020-5YJSA1E24LF372730</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>2020</v>
       </c>
       <c r="D127" t="n">
-        <v>57999</v>
+        <v>72999</v>
       </c>
       <c r="E127" t="n">
-        <v>16684</v>
+        <v>16382</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5145,26 +5145,26 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA4JF166353</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2021-5YJSA1E23MF425466</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D128" t="n">
-        <v>39999</v>
+        <v>88999</v>
       </c>
       <c r="E128" t="n">
-        <v>42611</v>
+        <v>16720</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>STANDARD 4DR FASTBACK</t>
+          <t>Long Range Plus</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5182,7 +5182,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA9JF078575</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB2MF902770</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5191,17 +5191,17 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D129" t="n">
-        <v>40999</v>
+        <v>55999</v>
       </c>
       <c r="E129" t="n">
-        <v>54204</v>
+        <v>4561</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5219,26 +5219,26 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF145734</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1S2XFF094358</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>43999</v>
+        <v>36999</v>
       </c>
       <c r="E130" t="n">
-        <v>40485</v>
+        <v>60543</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>70D</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5256,26 +5256,26 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1S2XFF094358</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB3KF510720</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D131" t="n">
-        <v>36999</v>
+        <v>50499</v>
       </c>
       <c r="E131" t="n">
-        <v>60543</v>
+        <v>24833</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>70D</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5293,26 +5293,26 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE6LF016199</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB2KF535043</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D132" t="n">
-        <v>60499</v>
+        <v>42499</v>
       </c>
       <c r="E132" t="n">
-        <v>13036</v>
+        <v>44558</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5330,26 +5330,26 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E25GF121981</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EC3LF792075</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D133" t="n">
-        <v>40999</v>
+        <v>59499</v>
       </c>
       <c r="E133" t="n">
-        <v>63282</v>
+        <v>8637</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>70D</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5367,26 +5367,26 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E26JF274036</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA4KF401433</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D134" t="n">
-        <v>52999</v>
+        <v>44999</v>
       </c>
       <c r="E134" t="n">
-        <v>41430</v>
+        <v>9698</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>AWD 75D 4DR LIFTBACK</t>
+          <t>Mid Range</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5404,26 +5404,26 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE3LF014572</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB7JF103322</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D135" t="n">
-        <v>60999</v>
+        <v>50499</v>
       </c>
       <c r="E135" t="n">
-        <v>6958</v>
+        <v>28277</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5441,26 +5441,26 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEF5LF005994</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2016-5YJXCAE25GF011920</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D136" t="n">
-        <v>59999</v>
+        <v>55999</v>
       </c>
       <c r="E136" t="n">
-        <v>7920</v>
+        <v>37808</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>AWD 75D 4DR SUV</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5478,7 +5478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1E22FF103257</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2014-5YJSA1S15EFP41335</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5487,17 +5487,17 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D137" t="n">
-        <v>36999</v>
+        <v>32999</v>
       </c>
       <c r="E137" t="n">
-        <v>50346</v>
+        <v>64961</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>AWD 70D 4DR LIFTBACK</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5515,26 +5515,26 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2012-5YJSA1DP1CFS00488</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EA8MF870060</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="D138" t="n">
-        <v>24999</v>
+        <v>47999</v>
       </c>
       <c r="E138" t="n">
-        <v>87460</v>
+        <v>6382</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Signature Performance</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5552,7 +5552,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB1KF477698</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF145734</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5561,13 +5561,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D139" t="n">
-        <v>48499</v>
+        <v>43999</v>
       </c>
       <c r="E139" t="n">
-        <v>44564</v>
+        <v>40485</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5589,26 +5589,26 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E47GF129582</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF130280</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D140" t="n">
-        <v>49999</v>
+        <v>40499</v>
       </c>
       <c r="E140" t="n">
-        <v>45037</v>
+        <v>38926</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>90D</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5626,26 +5626,26 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED2MF125932</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E47GF129582</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>55999</v>
+        <v>49999</v>
       </c>
       <c r="E141" t="n">
-        <v>3300</v>
+        <v>45037</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>90D</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5663,26 +5663,26 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA4KF401433</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E25GF121981</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D142" t="n">
-        <v>44999</v>
+        <v>40999</v>
       </c>
       <c r="E142" t="n">
-        <v>9698</v>
+        <v>63282</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Mid Range</t>
+          <t>70D</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5700,26 +5700,26 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEDXMF107503</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2016-5YJXCAE26GF018908</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D143" t="n">
-        <v>56999</v>
+        <v>57999</v>
       </c>
       <c r="E143" t="n">
-        <v>3462</v>
+        <v>48243</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>UTILITY 4D D 60 KWH AWD</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5737,26 +5737,26 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2020-5YJXCDE28LF236683</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA3JF156543</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D144" t="n">
-        <v>87999</v>
+        <v>40999</v>
       </c>
       <c r="E144" t="n">
-        <v>4156</v>
+        <v>39696</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR SUV</t>
+          <t>STANDARD 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5774,26 +5774,26 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCBE25JF101405</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE4MF062342</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D145" t="n">
-        <v>77999</v>
+        <v>59999</v>
       </c>
       <c r="E145" t="n">
-        <v>18549</v>
+        <v>3755</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>100D</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5811,26 +5811,26 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E25HF230541</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2016-5YJXCAE26GF018908</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D146" t="n">
-        <v>50999</v>
+        <v>57999</v>
       </c>
       <c r="E146" t="n">
-        <v>31884</v>
+        <v>48243</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>AWD 75D 4DR LIFTBACK</t>
+          <t>UTILITY 4D D 60 KWH AWD</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5848,26 +5848,26 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2014-5YJSA1S15EFP41335</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA3JF156543</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D147" t="n">
-        <v>32999</v>
+        <v>40999</v>
       </c>
       <c r="E147" t="n">
-        <v>64961</v>
+        <v>39696</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>STANDARD 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5885,26 +5885,26 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1S2XFF094358</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2021-5YJXCBE24MF324233</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="D148" t="n">
-        <v>36999</v>
+        <v>94999</v>
       </c>
       <c r="E148" t="n">
-        <v>60543</v>
+        <v>12016</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>70D</t>
+          <t>Long Range Plus</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5922,26 +5922,26 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB1KF477698</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E21HF206818</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D149" t="n">
-        <v>48499</v>
+        <v>45999</v>
       </c>
       <c r="E149" t="n">
-        <v>44564</v>
+        <v>59410</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>AWD 75D 4DR LIFTBACK</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5959,26 +5959,26 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB2KF535043</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E21JF258326</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D150" t="n">
-        <v>42499</v>
+        <v>53999</v>
       </c>
       <c r="E150" t="n">
-        <v>44558</v>
+        <v>31167</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5996,7 +5996,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2020-5YJSA1E24LF372730</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1E22FF103257</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6005,17 +6005,17 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D151" t="n">
-        <v>72999</v>
+        <v>36999</v>
       </c>
       <c r="E151" t="n">
-        <v>16382</v>
+        <v>50346</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>AWD 70D 4DR LIFTBACK</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6033,7 +6033,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB7JF103322</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EA3MF915647</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6042,17 +6042,17 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D152" t="n">
-        <v>50499</v>
+        <v>47999</v>
       </c>
       <c r="E152" t="n">
-        <v>28277</v>
+        <v>1892</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6070,7 +6070,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA3JF156543</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA9LF630868</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6079,17 +6079,17 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D153" t="n">
         <v>40999</v>
       </c>
       <c r="E153" t="n">
-        <v>39696</v>
+        <v>15357</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>STANDARD 4DR FASTBACK</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6107,26 +6107,26 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE4MF062342</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA7LF783717</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D154" t="n">
-        <v>59999</v>
+        <v>45999</v>
       </c>
       <c r="E154" t="n">
-        <v>3755</v>
+        <v>13169</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6144,26 +6144,26 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE8LF025955</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E27HF194660</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D155" t="n">
-        <v>56999</v>
+        <v>45999</v>
       </c>
       <c r="E155" t="n">
-        <v>2665</v>
+        <v>60253</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6181,7 +6181,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF145734</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA9LF662008</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6190,17 +6190,17 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D156" t="n">
-        <v>43999</v>
+        <v>45999</v>
       </c>
       <c r="E156" t="n">
-        <v>40485</v>
+        <v>18218</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB1KF187171</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA3LF615122</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6227,17 +6227,17 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D157" t="n">
-        <v>49999</v>
+        <v>46499</v>
       </c>
       <c r="E157" t="n">
-        <v>12381</v>
+        <v>13145</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6255,26 +6255,26 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2012-5YJSA1DP1CFS00488</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEF5LF005994</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="D158" t="n">
-        <v>24999</v>
+        <v>59999</v>
       </c>
       <c r="E158" t="n">
-        <v>87460</v>
+        <v>7920</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Signature Performance</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6292,26 +6292,26 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E26JF274036</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEEXLF016111</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D159" t="n">
-        <v>52999</v>
+        <v>57999</v>
       </c>
       <c r="E159" t="n">
-        <v>41430</v>
+        <v>16684</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>AWD 75D 4DR LIFTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6329,26 +6329,26 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE25JF090272</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE6LF016199</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D160" t="n">
-        <v>71999</v>
+        <v>60499</v>
       </c>
       <c r="E160" t="n">
-        <v>36423</v>
+        <v>13036</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>AWD 75D 4DR SUV</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6366,26 +6366,26 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCDE25JF090787</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB4KF388238</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D161" t="n">
-        <v>62999</v>
+        <v>49999</v>
       </c>
       <c r="E161" t="n">
-        <v>28351</v>
+        <v>20742</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>75D</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6403,26 +6403,26 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCBE25JF101405</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF114256</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>2018</v>
       </c>
       <c r="D162" t="n">
-        <v>77999</v>
+        <v>44999</v>
       </c>
       <c r="E162" t="n">
-        <v>18549</v>
+        <v>29697</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>100D</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6440,26 +6440,26 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA5JF021919</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED7MF177041</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D163" t="n">
-        <v>33999</v>
+        <v>56999</v>
       </c>
       <c r="E163" t="n">
-        <v>54146</v>
+        <v>2210</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6477,26 +6477,26 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB2MF902770</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E17HF228409</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D164" t="n">
-        <v>55999</v>
+        <v>43999</v>
       </c>
       <c r="E164" t="n">
-        <v>4561</v>
+        <v>28380</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6514,26 +6514,26 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA4JF018977</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E23JF257243</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>2018</v>
       </c>
       <c r="D165" t="n">
-        <v>39999</v>
+        <v>57999</v>
       </c>
       <c r="E165" t="n">
-        <v>59442</v>
+        <v>8856</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6551,26 +6551,26 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA7LF783717</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E2XHF227280</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D166" t="n">
-        <v>45999</v>
+        <v>55999</v>
       </c>
       <c r="E166" t="n">
-        <v>13169</v>
+        <v>35231</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>100D</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6588,26 +6588,26 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E21JF258326</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA5JF021919</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>2018</v>
       </c>
       <c r="D167" t="n">
-        <v>53999</v>
+        <v>33999</v>
       </c>
       <c r="E167" t="n">
-        <v>31167</v>
+        <v>54146</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>75D</t>
+          <t>LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6625,7 +6625,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF130280</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB1KF477698</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6634,13 +6634,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D168" t="n">
-        <v>40499</v>
+        <v>48499</v>
       </c>
       <c r="E168" t="n">
-        <v>38926</v>
+        <v>44564</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6662,26 +6662,26 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2017-5YJXCAE41HF052757</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1E25FF106315</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D169" t="n">
-        <v>78999</v>
+        <v>46999</v>
       </c>
       <c r="E169" t="n">
-        <v>38507</v>
+        <v>10303</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>P100D</t>
+          <t>85D</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6699,26 +6699,26 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED7MF133217</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2015-5YJSA1E25FF106315</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>54999</v>
+        <v>46999</v>
       </c>
       <c r="E170" t="n">
-        <v>4360</v>
+        <v>10303</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>85D</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6736,7 +6736,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E17HF228409</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2012-5YJSA1DP1CFS00488</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6745,17 +6745,17 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D171" t="n">
-        <v>43999</v>
+        <v>24999</v>
       </c>
       <c r="E171" t="n">
-        <v>28380</v>
+        <v>87460</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>Signature Performance</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6773,26 +6773,26 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EBXJF096673</t>
+          <t>https://www.vroom.com/inventory/tesla-model-x-2018-5YJXCBE25JF101405</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model X</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>2018</v>
       </c>
       <c r="D172" t="n">
-        <v>44999</v>
+        <v>77999</v>
       </c>
       <c r="E172" t="n">
-        <v>37715</v>
+        <v>18549</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>100D</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6810,26 +6810,26 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2016-5YJSA1E12GF140933</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE5LF012855</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D173" t="n">
-        <v>41999</v>
+        <v>60499</v>
       </c>
       <c r="E173" t="n">
-        <v>34732</v>
+        <v>13983</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>75 4DR LIFTBACK (MIDYEAR RELEASE)</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6847,26 +6847,26 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2016-5YJXCAE48GF003828</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EAXKF190559</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D174" t="n">
-        <v>57999</v>
+        <v>42499</v>
       </c>
       <c r="E174" t="n">
-        <v>50600</v>
+        <v>48762</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>P90D</t>
+          <t>MID RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6884,7 +6884,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED7MF177041</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE7MF065221</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6896,14 +6896,14 @@
         <v>2021</v>
       </c>
       <c r="D175" t="n">
-        <v>56999</v>
+        <v>62999</v>
       </c>
       <c r="E175" t="n">
-        <v>2210</v>
+        <v>4811</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6921,26 +6921,26 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEF2LF002759</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB1JF056238</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D176" t="n">
-        <v>61999</v>
+        <v>48999</v>
       </c>
       <c r="E176" t="n">
-        <v>13278</v>
+        <v>35981</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6958,26 +6958,26 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2016-5YJXCBE20GF004010</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EA2MF854520</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D177" t="n">
-        <v>66499</v>
+        <v>49999</v>
       </c>
       <c r="E177" t="n">
-        <v>42363</v>
+        <v>8939</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>AWD 90D 4DR SUV</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6995,26 +6995,26 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2021-5YJXCBE24MF324233</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB3MF859833</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>2021</v>
       </c>
       <c r="D178" t="n">
-        <v>94999</v>
+        <v>53999</v>
       </c>
       <c r="E178" t="n">
-        <v>12016</v>
+        <v>5224</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Long Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7032,26 +7032,26 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB7KF231223</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2019-5YJSA1E25KF307366</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>2019</v>
       </c>
       <c r="D179" t="n">
-        <v>48999</v>
+        <v>69999</v>
       </c>
       <c r="E179" t="n">
-        <v>40305</v>
+        <v>47600</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>AWD PERFORMANCE 4DR FASTBACK</t>
+          <t>AWD 100D 4DR LIFTBACK</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7069,26 +7069,26 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EA2MF854520</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED7MF105580</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>2021</v>
       </c>
       <c r="D180" t="n">
-        <v>49999</v>
+        <v>54999</v>
       </c>
       <c r="E180" t="n">
-        <v>8939</v>
+        <v>4662</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7106,26 +7106,26 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDED2MF109598</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA5KF306332</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D181" t="n">
-        <v>49999</v>
+        <v>40999</v>
       </c>
       <c r="E181" t="n">
-        <v>4177</v>
+        <v>18160</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>STANDARD RANGE PLUS 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7143,7 +7143,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA1JF060670</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB3LF735267</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7152,17 +7152,17 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D182" t="n">
-        <v>41499</v>
+        <v>49999</v>
       </c>
       <c r="E182" t="n">
-        <v>27917</v>
+        <v>11087</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7180,7 +7180,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB3LF735267</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB0JF118969</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7189,17 +7189,17 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D183" t="n">
-        <v>49999</v>
+        <v>46999</v>
       </c>
       <c r="E183" t="n">
-        <v>11087</v>
+        <v>54734</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7217,26 +7217,26 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E24JF244811</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA2LF633126</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D184" t="n">
-        <v>55999</v>
+        <v>36999</v>
       </c>
       <c r="E184" t="n">
-        <v>51437</v>
+        <v>47311</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>AWD 75D 4DR LIFTBACK</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7254,7 +7254,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB6KF199168</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA4KF398484</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7266,14 +7266,14 @@
         <v>2019</v>
       </c>
       <c r="D185" t="n">
-        <v>50499</v>
+        <v>40999</v>
       </c>
       <c r="E185" t="n">
-        <v>27047</v>
+        <v>27449</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>STANDARD RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -7291,7 +7291,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF098309</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA6LF803813</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7300,17 +7300,17 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D186" t="n">
-        <v>42499</v>
+        <v>40999</v>
       </c>
       <c r="E186" t="n">
-        <v>26010</v>
+        <v>11229</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7328,26 +7328,26 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EAXKF190559</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E28JF280954</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D187" t="n">
-        <v>42499</v>
+        <v>55499</v>
       </c>
       <c r="E187" t="n">
-        <v>48762</v>
+        <v>27600</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>MID RANGE 4DR FASTBACK</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7365,7 +7365,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB8KF390042</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EC3LF719109</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -7374,17 +7374,17 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D188" t="n">
-        <v>48499</v>
+        <v>58499</v>
       </c>
       <c r="E188" t="n">
-        <v>41741</v>
+        <v>12134</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7402,7 +7402,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB0JF118969</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA1KF399415</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -7411,17 +7411,17 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D189" t="n">
-        <v>46999</v>
+        <v>40499</v>
       </c>
       <c r="E189" t="n">
-        <v>54734</v>
+        <v>23511</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>STANDARD RANGE PLUS 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7439,7 +7439,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB6MF850155</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA3JF039819</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -7448,17 +7448,17 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D190" t="n">
-        <v>58999</v>
+        <v>40999</v>
       </c>
       <c r="E190" t="n">
-        <v>7633</v>
+        <v>44967</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7476,7 +7476,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA6LF803813</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB6KF199168</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -7485,17 +7485,17 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D191" t="n">
-        <v>40999</v>
+        <v>50499</v>
       </c>
       <c r="E191" t="n">
-        <v>11229</v>
+        <v>27047</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7513,22 +7513,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE7MF065221</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB6MF850155</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>2021</v>
       </c>
       <c r="D192" t="n">
-        <v>62999</v>
+        <v>58999</v>
       </c>
       <c r="E192" t="n">
-        <v>4811</v>
+        <v>7633</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7550,26 +7550,26 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB1JF056238</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2018-5YJSA1E24JF244811</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>2018</v>
       </c>
       <c r="D193" t="n">
-        <v>48999</v>
+        <v>55999</v>
       </c>
       <c r="E193" t="n">
-        <v>35981</v>
+        <v>51437</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>AWD 75D 4DR LIFTBACK</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7587,7 +7587,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA6LF803813</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA4LF612777</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7599,10 +7599,10 @@
         <v>2020</v>
       </c>
       <c r="D194" t="n">
-        <v>40999</v>
+        <v>42999</v>
       </c>
       <c r="E194" t="n">
-        <v>11229</v>
+        <v>6389</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -7624,26 +7624,26 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF114256</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE8MF088233</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D195" t="n">
-        <v>44999</v>
+        <v>61499</v>
       </c>
       <c r="E195" t="n">
-        <v>29697</v>
+        <v>10445</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7661,26 +7661,26 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EA2MF854520</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEDXMF115200</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>2021</v>
       </c>
       <c r="D196" t="n">
-        <v>49999</v>
+        <v>56499</v>
       </c>
       <c r="E196" t="n">
-        <v>8939</v>
+        <v>4730</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7698,26 +7698,26 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB4KF388238</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2019-5YJSA1E25KF299866</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>2019</v>
       </c>
       <c r="D197" t="n">
-        <v>49999</v>
+        <v>64999</v>
       </c>
       <c r="E197" t="n">
-        <v>20742</v>
+        <v>19718</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>AWD 75D 4DR LIFTBACK</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7735,22 +7735,22 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB6MF850155</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE5LF051140</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D198" t="n">
-        <v>58999</v>
+        <v>56999</v>
       </c>
       <c r="E198" t="n">
-        <v>7633</v>
+        <v>18269</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA3LF615122</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA1JF060670</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7818,17 +7818,17 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D200" t="n">
-        <v>46499</v>
+        <v>41499</v>
       </c>
       <c r="E200" t="n">
-        <v>13145</v>
+        <v>27917</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7846,26 +7846,26 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2019-5YJSA1E25KF299866</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB8KF390042</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C201" t="n">
         <v>2019</v>
       </c>
       <c r="D201" t="n">
-        <v>64999</v>
+        <v>48499</v>
       </c>
       <c r="E201" t="n">
-        <v>19718</v>
+        <v>41741</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>AWD 75D 4DR LIFTBACK</t>
+          <t>AWD LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7883,7 +7883,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA2LF633126</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF098309</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -7892,17 +7892,17 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D202" t="n">
-        <v>36999</v>
+        <v>42499</v>
       </c>
       <c r="E202" t="n">
-        <v>47311</v>
+        <v>26010</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7920,7 +7920,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EAXJF172433</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB5LF637793</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -7929,17 +7929,17 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D203" t="n">
-        <v>40999</v>
+        <v>52999</v>
       </c>
       <c r="E203" t="n">
-        <v>48000</v>
+        <v>14178</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>STANDARD 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7957,26 +7957,26 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB3MF859833</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E27HF198207</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D204" t="n">
-        <v>53999</v>
+        <v>60499</v>
       </c>
       <c r="E204" t="n">
-        <v>5224</v>
+        <v>46563</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>AWD 75D 4DR LIFTBACK</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7994,26 +7994,26 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEDXMF115200</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA4LF612777</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Model Y</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D205" t="n">
-        <v>56499</v>
+        <v>42999</v>
       </c>
       <c r="E205" t="n">
-        <v>4730</v>
+        <v>6389</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Standard Range</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8031,26 +8031,26 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF098309</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE8MF088233</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D206" t="n">
-        <v>42499</v>
+        <v>61499</v>
       </c>
       <c r="E206" t="n">
-        <v>26010</v>
+        <v>10445</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8068,7 +8068,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE7MF065221</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEDXMF115200</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -8080,14 +8080,14 @@
         <v>2021</v>
       </c>
       <c r="D207" t="n">
-        <v>62999</v>
+        <v>56499</v>
       </c>
       <c r="E207" t="n">
-        <v>4811</v>
+        <v>4730</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Standard Range</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8105,26 +8105,26 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA3JF039819</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2019-5YJSA1E25KF299866</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D208" t="n">
-        <v>40999</v>
+        <v>64999</v>
       </c>
       <c r="E208" t="n">
-        <v>44967</v>
+        <v>19718</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
+          <t>AWD 75D 4DR LIFTBACK</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8142,26 +8142,26 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2021-5YJXCBE24MF324233</t>
+          <t>https://www.vroom.com/inventory/tesla-model-y-2020-5YJYGDEE5LF051140</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Model X</t>
+          <t>Model Y</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D209" t="n">
-        <v>94999</v>
+        <v>56999</v>
       </c>
       <c r="E209" t="n">
-        <v>12016</v>
+        <v>18269</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Long Range Plus</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -8179,26 +8179,26 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2019-5YJSA1E25KF307366</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA0KF304990</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Model S</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>2019</v>
       </c>
       <c r="D210" t="n">
-        <v>69999</v>
+        <v>38999</v>
       </c>
       <c r="E210" t="n">
-        <v>47600</v>
+        <v>39526</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>AWD 100D 4DR LIFTBACK</t>
+          <t>Standard Range Plus</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -8216,7 +8216,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA6LF803813</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA1JF060670</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -8225,17 +8225,17 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D211" t="n">
-        <v>40999</v>
+        <v>41499</v>
       </c>
       <c r="E211" t="n">
-        <v>11229</v>
+        <v>27917</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8253,7 +8253,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EB9JF114256</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB8KF390042</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -8262,13 +8262,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D212" t="n">
-        <v>44999</v>
+        <v>48499</v>
       </c>
       <c r="E212" t="n">
-        <v>29697</v>
+        <v>41741</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EA2MF854520</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF098309</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -8299,17 +8299,17 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D213" t="n">
-        <v>49999</v>
+        <v>42499</v>
       </c>
       <c r="E213" t="n">
-        <v>8939</v>
+        <v>26010</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Standard Range Plus</t>
+          <t>LONG RANGE 4DR FASTBACK</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8327,7 +8327,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EB4KF388238</t>
+          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EB5LF637793</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -8336,17 +8336,17 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D214" t="n">
-        <v>49999</v>
+        <v>52999</v>
       </c>
       <c r="E214" t="n">
-        <v>20742</v>
+        <v>14178</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>AWD LONG RANGE 4DR FASTBACK</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8364,26 +8364,26 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB6MF850155</t>
+          <t>https://www.vroom.com/inventory/tesla-model-s-2017-5YJSA1E27HF198207</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Model 3</t>
+          <t>Model S</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D215" t="n">
-        <v>58999</v>
+        <v>60499</v>
       </c>
       <c r="E215" t="n">
-        <v>7633</v>
+        <v>46563</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>AWD 75D 4DR LIFTBACK</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8397,450 +8397,6 @@
         </is>
       </c>
       <c r="I215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2019-5YJ3E1EA0KF304990</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Model 3</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D216" t="n">
-        <v>38999</v>
-      </c>
-      <c r="E216" t="n">
-        <v>39526</v>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Standard Range Plus</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA3LF615122</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Model 3</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D217" t="n">
-        <v>46499</v>
-      </c>
-      <c r="E217" t="n">
-        <v>13145</v>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Standard Range Plus</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2019-5YJSA1E25KF299866</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Model S</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D218" t="n">
-        <v>64999</v>
-      </c>
-      <c r="E218" t="n">
-        <v>19718</v>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>AWD 75D 4DR LIFTBACK</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2020-5YJ3E1EA2LF633126</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Model 3</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D219" t="n">
-        <v>36999</v>
-      </c>
-      <c r="E219" t="n">
-        <v>47311</v>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Standard Range Plus</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EAXJF172433</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Model 3</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D220" t="n">
-        <v>40999</v>
-      </c>
-      <c r="E220" t="n">
-        <v>48000</v>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>STANDARD 4DR FASTBACK</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2021-5YJ3E1EB3MF859833</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Model 3</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D221" t="n">
-        <v>53999</v>
-      </c>
-      <c r="E221" t="n">
-        <v>5224</v>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Long Range</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEDXMF115200</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Model Y</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D222" t="n">
-        <v>56499</v>
-      </c>
-      <c r="E222" t="n">
-        <v>4730</v>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Standard Range</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA0JF098309</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Model 3</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D223" t="n">
-        <v>42499</v>
-      </c>
-      <c r="E223" t="n">
-        <v>26010</v>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-y-2021-5YJYGDEE7MF065221</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Model Y</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D224" t="n">
-        <v>62999</v>
-      </c>
-      <c r="E224" t="n">
-        <v>4811</v>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Long Range</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-3-2018-5YJ3E1EA3JF039819</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Model 3</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D225" t="n">
-        <v>40999</v>
-      </c>
-      <c r="E225" t="n">
-        <v>44967</v>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>LONG RANGE 4DR FASTBACK</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-x-2021-5YJXCBE24MF324233</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Model X</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D226" t="n">
-        <v>94999</v>
-      </c>
-      <c r="E226" t="n">
-        <v>12016</v>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Long Range Plus</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>https://www.vroom.com/inventory/tesla-model-s-2019-5YJSA1E25KF307366</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Model S</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D227" t="n">
-        <v>69999</v>
-      </c>
-      <c r="E227" t="n">
-        <v>47600</v>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>AWD 100D 4DR LIFTBACK</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Available Soon</t>
-        </is>
-      </c>
-      <c r="I227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
